--- a/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +712,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E8" s="3">
         <v>106900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>101500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>368100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>81300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,26 +744,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E9" s="3">
         <v>42200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>39000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>148900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30500</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,26 +776,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E10" s="3">
         <v>64700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>62500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>219200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>50800</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,26 +824,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E12" s="3">
         <v>26500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8700</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,26 +886,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-9500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -898,26 +918,29 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E15" s="3">
         <v>11200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>40100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9500</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,26 +963,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E17" s="3">
         <v>219200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>99600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>376200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>90000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,26 +993,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-112300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8700</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,26 +1041,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>19300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-24900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-28000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2800</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,26 +1071,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-81700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,26 +1103,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,26 +1135,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-68700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-94300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-52300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15800</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,26 +1167,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,26 +1231,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-94900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-53200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,26 +1263,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-98100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-72800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,26 +1423,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>24900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>28000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2800</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,26 +1455,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-98100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-72800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,26 +1519,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-98100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-72800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,31 +1551,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,20 +1618,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E41" s="3">
         <v>113600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,20 +1680,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E43" s="3">
         <v>72000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>69400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,20 +1744,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,20 +1776,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E46" s="3">
         <v>194400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>134200</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,20 +1840,23 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,20 +1872,23 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E49" s="3">
         <v>153300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>145800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,20 +1968,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2032,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>354300</v>
+      </c>
+      <c r="E54" s="3">
         <v>354500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>286400</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,20 +2094,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E57" s="3">
         <v>30900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2124,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,20 +2156,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E59" s="3">
         <v>66100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61900</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,20 +2188,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E60" s="3">
         <v>97000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,20 +2220,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E61" s="3">
         <v>183400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>193400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2109,20 +2252,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E62" s="3">
         <v>21000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>102800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2380,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>298500</v>
+      </c>
+      <c r="E66" s="3">
         <v>301500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>390300</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2334,11 +2502,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>154200</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2554,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-430700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-361600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-266600</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2682,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E76" s="3">
         <v>53100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-258100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2746,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,26 +2783,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-98100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-72800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,26 +2831,27 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E83" s="3">
         <v>11200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,26 +3021,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E89" s="3">
         <v>7600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,26 +3069,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,26 +3163,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,26 +3337,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>63300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3123,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3132,16 +3381,16 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3152,26 +3401,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>61500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7400</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>ZETA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,49 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="I7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44012</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -715,31 +715,34 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E8" s="3">
         <v>115100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>106900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>101500</v>
       </c>
-      <c r="G8" s="3">
-        <v>368100</v>
-      </c>
       <c r="H8" s="3">
-        <v>81300</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>114400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>95300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>77100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -747,31 +750,34 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E9" s="3">
         <v>44500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>42200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>39000</v>
       </c>
-      <c r="G9" s="3">
-        <v>148900</v>
-      </c>
       <c r="H9" s="3">
-        <v>30500</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>48300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>40700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>29300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -779,31 +785,34 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E10" s="3">
         <v>70600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>64700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62500</v>
       </c>
-      <c r="G10" s="3">
-        <v>219200</v>
-      </c>
       <c r="H10" s="3">
-        <v>50800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>66100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>54600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>47800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -811,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,31 +837,32 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E12" s="3">
         <v>14000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9800</v>
       </c>
-      <c r="G12" s="3">
-        <v>31800</v>
-      </c>
       <c r="H12" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>8000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -857,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,31 +905,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-9500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
-        <v>7500</v>
-      </c>
       <c r="H14" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>1200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -921,31 +940,34 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E15" s="3">
         <v>11800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10100</v>
       </c>
-      <c r="G15" s="3">
-        <v>40100</v>
-      </c>
       <c r="H15" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>9900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -953,8 +975,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,31 +989,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E17" s="3">
         <v>182000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>219200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>99600</v>
       </c>
-      <c r="G17" s="3">
-        <v>376200</v>
-      </c>
       <c r="H17" s="3">
-        <v>90000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>107800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>94700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>83800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -996,31 +1022,34 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-66900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-112300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-8100</v>
-      </c>
       <c r="H18" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>6600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-6700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1028,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,31 +1074,32 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>19300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-28000</v>
-      </c>
       <c r="H20" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-12100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1074,31 +1107,34 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-55600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-81700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12900</v>
       </c>
-      <c r="G21" s="3">
-        <v>4000</v>
-      </c>
       <c r="H21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1106,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1115,22 +1154,22 @@
         <v>1300</v>
       </c>
       <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
-        <v>16300</v>
-      </c>
       <c r="H22" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>3700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4400</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1138,31 +1177,34 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-68700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-94300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-52300</v>
-      </c>
       <c r="H23" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-9200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-14700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1170,31 +1212,34 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1600</v>
       </c>
-      <c r="G24" s="3">
-        <v>900</v>
-      </c>
       <c r="H24" s="3">
-        <v>600</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>400</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1202,8 +1247,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,31 +1282,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-69100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-94900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-53200</v>
-      </c>
       <c r="H26" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-8800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-15100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1266,31 +1317,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-69100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-98100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-72800</v>
-      </c>
       <c r="H27" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-17200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-18800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,31 +1492,34 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-19300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24900</v>
       </c>
-      <c r="G32" s="3">
-        <v>28000</v>
-      </c>
       <c r="H32" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>12100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1458,31 +1527,34 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-69100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-98100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-72800</v>
-      </c>
       <c r="H33" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-17200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-18800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1490,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,31 +1597,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-69100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-98100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-72800</v>
-      </c>
       <c r="H35" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-17200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-18800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1554,36 +1632,39 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="I38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J38" s="2">
+        <v>44012</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1591,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,23 +1704,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E41" s="3">
         <v>116200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>113600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,23 +1772,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E43" s="3">
         <v>72800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>72000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>69400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1807,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,23 +1842,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,23 +1877,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E46" s="3">
         <v>197800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>194400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>134200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1912,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,23 +1947,26 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E48" s="3">
         <v>5900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,23 +1982,26 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E49" s="3">
         <v>149300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>153300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>145800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2017,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,23 +2087,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,23 +2157,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>397300</v>
+      </c>
+      <c r="E54" s="3">
         <v>354300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>354500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>286400</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,23 +2224,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E57" s="3">
         <v>27900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2257,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2159,23 +2292,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E59" s="3">
         <v>74600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>61900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,23 +2327,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>105800</v>
+      </c>
+      <c r="E60" s="3">
         <v>102500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>97000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>94100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,23 +2362,26 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>183600</v>
+      </c>
+      <c r="E61" s="3">
         <v>183500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>183400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>193400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2255,23 +2397,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E62" s="3">
         <v>12500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>102800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,23 +2537,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>306800</v>
+      </c>
+      <c r="E66" s="3">
         <v>298500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>301500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>390300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2505,11 +2672,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>154200</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2525,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,23 +2727,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-491800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-430700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-361600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-266600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,23 +2867,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E76" s="3">
         <v>55800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>53100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-258100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,36 +2937,39 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="I80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44012</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2786,31 +2977,34 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-69100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-98100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-72800</v>
-      </c>
       <c r="H81" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-17200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-18800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,31 +3029,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E83" s="3">
         <v>11800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10100</v>
       </c>
-      <c r="G83" s="3">
-        <v>40100</v>
-      </c>
       <c r="H83" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>9900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>10500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2864,8 +3062,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,31 +3237,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E89" s="3">
         <v>10200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5600</v>
       </c>
-      <c r="G89" s="3">
-        <v>35500</v>
-      </c>
       <c r="H89" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>18900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>6300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,31 +3289,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3102,8 +3322,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,31 +3392,34 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6800</v>
       </c>
-      <c r="G94" s="3">
-        <v>-25200</v>
-      </c>
       <c r="H94" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-5800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3198,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,31 +3582,34 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>63300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
-        <v>2800</v>
-      </c>
       <c r="H100" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-3200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>9600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3372,31 +3617,34 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>-200</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3404,36 +3652,42 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>61500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
-        <v>12900</v>
-      </c>
       <c r="H102" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>9800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>10300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E8" s="3">
         <v>134800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>115100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>106900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>101500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>95300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>77100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E9" s="3">
         <v>49000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>42200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>29300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E10" s="3">
         <v>85800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>70600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>62500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>66100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>47800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,43 +851,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E12" s="3">
         <v>14200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,43 +925,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-9500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,34 +975,37 @@
         <v>12800</v>
       </c>
       <c r="E15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F15" s="3">
         <v>11800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>194300</v>
+      </c>
+      <c r="E17" s="3">
         <v>196000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>182000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>219200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>99600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>107800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>94700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>83800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-61200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-66900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-112300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,78 +1108,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>19300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-24900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-47100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-55600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-81700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1157,101 +1197,110 @@
         <v>1300</v>
       </c>
       <c r="F22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-61200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-68700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-94300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-61100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-69100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-94900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-61100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-69100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-98100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,78 +1562,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-19300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>24900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-61100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-69100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-98100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-61100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-69100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-98100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,8 +1791,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1714,17 +1801,17 @@
         <v>103900</v>
       </c>
       <c r="E41" s="3">
+        <v>103900</v>
+      </c>
+      <c r="F41" s="3">
         <v>116200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>113600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,26 +1865,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E43" s="3">
         <v>83600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>72800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>72000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>69400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,8 +1941,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1854,17 +1953,17 @@
         <v>8600</v>
       </c>
       <c r="E45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,26 +1979,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E46" s="3">
         <v>196100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>197800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>194400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>134200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,26 +2055,29 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E48" s="3">
         <v>5600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,26 +2093,29 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E49" s="3">
         <v>193500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>149300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>153300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>145800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,26 +2207,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2283,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>416300</v>
+      </c>
+      <c r="E54" s="3">
         <v>397300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>354300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>354500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>286400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2355,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E57" s="3">
         <v>21700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,8 +2391,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,26 +2429,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E59" s="3">
         <v>84000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>61900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2467,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E60" s="3">
         <v>105800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>102500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>97000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>94100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,26 +2505,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>183700</v>
+      </c>
+      <c r="E61" s="3">
         <v>183600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>183500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>183400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>193400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2400,26 +2543,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E62" s="3">
         <v>17400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>102800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2695,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E66" s="3">
         <v>306800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>298500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>301500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>390300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2675,11 +2843,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>154200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +2901,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-563900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-491800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-430700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-361600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-266600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3053,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E76" s="3">
         <v>90500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>53100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-258100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-61100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-69100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-98100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3039,34 +3238,37 @@
         <v>12800</v>
       </c>
       <c r="E83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F83" s="3">
         <v>11800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3454,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E89" s="3">
         <v>20900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,43 +3510,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,43 +3622,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,69 +3828,75 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>63300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>9600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3655,39 +3904,45 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>61500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,192 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E8" s="3">
         <v>126300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>134800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>115100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>106900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>101500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>114400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>95300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>77100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E9" s="3">
         <v>41700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>42200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E10" s="3">
         <v>84600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>85800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>70600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>62500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>66100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>54600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,46 +865,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E12" s="3">
         <v>17200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,84 +945,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-9500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="E15" s="3">
         <v>12800</v>
       </c>
       <c r="F15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G15" s="3">
         <v>11800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>214400</v>
+      </c>
+      <c r="E17" s="3">
         <v>194300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>196000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>182000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>219200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>107800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>94700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>83800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-68000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-61200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-66900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-112300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,89 +1142,96 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>19300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-24900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-60600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-47100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-55600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-81700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
@@ -1200,107 +1240,116 @@
         <v>1300</v>
       </c>
       <c r="G22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-74600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-61200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-68700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-94300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-72000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-61100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-69100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-94900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-72000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-61100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-69100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-98100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-28300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1632,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E32" s="3">
         <v>5300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-19300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>24900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-72000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-61100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-69100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-98100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-72000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-61100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-69100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-98100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>103900</v>
+        <v>110800</v>
       </c>
       <c r="E41" s="3">
         <v>103900</v>
       </c>
       <c r="F41" s="3">
+        <v>103900</v>
+      </c>
+      <c r="G41" s="3">
         <v>116200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>113600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,29 +1958,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E43" s="3">
         <v>75600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>83600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>72800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>72000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>69400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,29 +2040,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="E45" s="3">
         <v>8600</v>
       </c>
       <c r="F45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E46" s="3">
         <v>188000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>196100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>197800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>194400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>134200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,29 +2163,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,29 +2204,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E49" s="3">
         <v>220400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>193500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>149300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>153300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>145800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,29 +2327,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>435800</v>
+      </c>
+      <c r="E54" s="3">
         <v>416300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>397300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>354300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>354500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>286400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2486,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E57" s="3">
         <v>17300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2432,29 +2566,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E59" s="3">
         <v>91900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>84000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>61900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2607,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>124600</v>
+      </c>
+      <c r="E60" s="3">
         <v>109200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>105800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>102500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>97000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>94100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,29 +2648,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E61" s="3">
         <v>183700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>183600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>183500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>183400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>193400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2546,29 +2689,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E62" s="3">
         <v>19100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>102800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>328900</v>
+      </c>
+      <c r="E66" s="3">
         <v>312000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>306800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>298500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>301500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>390300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2846,11 +3014,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>154200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3075,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-649900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-563900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-491800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-430700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-361600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-266600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E76" s="3">
         <v>104300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>90500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>55800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>53100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-258100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-72000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-61100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-69100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-98100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,46 +3427,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="E83" s="3">
         <v>12800</v>
       </c>
       <c r="F83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G83" s="3">
         <v>11800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E89" s="3">
         <v>21200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,75 +4074,81 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>63300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>9600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -3907,42 +4156,48 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-12300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>61500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,205 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>152300</v>
+      </c>
+      <c r="E8" s="3">
         <v>137300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>126300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>134800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>115100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>106900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>101500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>114400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>95300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>77100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E9" s="3">
         <v>50200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>49000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>44500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>42200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>39000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>29300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E10" s="3">
         <v>87100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>84600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>85800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>70600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>64700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>62500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>66100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E12" s="3">
         <v>18000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,81 +977,87 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-9500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E15" s="3">
         <v>13300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>12800</v>
       </c>
       <c r="F15" s="3">
         <v>12800</v>
       </c>
       <c r="G15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H15" s="3">
         <v>11800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>218400</v>
+      </c>
+      <c r="E17" s="3">
         <v>214400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>194300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>196000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>182000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>219200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>99600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>107800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>94700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>83800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-77100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-68000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-61200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-66900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-112300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,98 +1176,105 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-70700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-60600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-47100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-55600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-81700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
@@ -1243,113 +1283,122 @@
         <v>1300</v>
       </c>
       <c r="H22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-85700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-74600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-61200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-68700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-94300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-86000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-72000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-61100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-69100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-94900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-86000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-72000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-61100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-69100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-98100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>6900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-86000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-72000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-61100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-69100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-98100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-86000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-72000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-61100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-69100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-98100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,32 +1965,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E41" s="3">
         <v>110800</v>
-      </c>
-      <c r="E41" s="3">
-        <v>103900</v>
       </c>
       <c r="F41" s="3">
         <v>103900</v>
       </c>
       <c r="G41" s="3">
+        <v>103900</v>
+      </c>
+      <c r="H41" s="3">
         <v>116200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>113600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,32 +2051,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E43" s="3">
         <v>89500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>75600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>83600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>72800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>72000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>69400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,32 +2139,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
         <v>8400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>8600</v>
       </c>
       <c r="F45" s="3">
         <v>8600</v>
       </c>
       <c r="G45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,32 +2183,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>215700</v>
+      </c>
+      <c r="E46" s="3">
         <v>208700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>188000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>196100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>197800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>194400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>134200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,32 +2271,35 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,32 +2315,35 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>215500</v>
+      </c>
+      <c r="E49" s="3">
         <v>217900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>220400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>193500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>149300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>153300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>145800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,32 +2447,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,32 +2535,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>440700</v>
+      </c>
+      <c r="E54" s="3">
         <v>435800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>416300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>397300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>354300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>354500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>286400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,32 +2617,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E57" s="3">
         <v>38100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,32 +2703,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E59" s="3">
         <v>86500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>91900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>84000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>61900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2747,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E60" s="3">
         <v>124600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>109200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>105800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>102500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>97000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>94100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,32 +2791,35 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E61" s="3">
         <v>183800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>183700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>183600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>183500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>183400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>193400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2692,32 +2835,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E62" s="3">
         <v>20600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>102800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,32 +3011,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E66" s="3">
         <v>328900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>312000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>306800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>298500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>301500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>390300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3017,11 +3185,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>154200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3249,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-719300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-649900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-563900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-491800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-430700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-361600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-266600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,32 +3425,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E76" s="3">
         <v>106900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>104300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>90500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>55800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>53100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-258100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-86000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-72000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-61100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-69100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-98100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,49 +3626,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E83" s="3">
         <v>13300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>12800</v>
       </c>
       <c r="F83" s="3">
         <v>12800</v>
       </c>
       <c r="G83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H83" s="3">
         <v>11800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E89" s="3">
         <v>14700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +3952,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,81 +4320,87 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>63300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>9600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>6900</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-12300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>61500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>157600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>175100</v>
+      </c>
+      <c r="F8" s="3">
         <v>152300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>137300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>126300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>134800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>115100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>106900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>101500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>114400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>95300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>77100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F9" s="3">
         <v>57500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>50200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>41700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>49000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>44500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>42200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>39000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>48300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>40700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>29300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>109100</v>
+      </c>
+      <c r="F10" s="3">
         <v>94800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>87100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>84600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>85800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>70600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>64700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>62500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>66100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>54600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>47800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +905,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F12" s="3">
         <v>17000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>18000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>17200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>14200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>14000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>26500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>8200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,96 +1001,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-9500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F15" s="3">
         <v>13400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>13300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>12800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>12800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>11800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>11200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>10100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>9900</v>
       </c>
       <c r="L15" s="3">
         <v>10100</v>
       </c>
       <c r="M15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="N15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O15" s="3">
         <v>10500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>222900</v>
+      </c>
+      <c r="F17" s="3">
         <v>218400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>214400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>194300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>196000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>182000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>219200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>99600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>107800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>94700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>83800</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-66100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-77100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-68000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-61200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-66900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-112300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,228 +1242,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-6900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>19300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-24900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-12100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-9500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-53100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-70700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-60600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-47100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-55600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-81700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-12900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1300</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
       </c>
       <c r="I22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-68500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-85700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-74600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-61200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-68700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-94300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-26000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-12700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-14700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-69400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-86000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-72000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-61100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-69100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-94900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-24400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-13000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-15100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-69400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-86000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-72000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-61100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-69100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-98100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-28300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-17200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-16800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-18800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>6900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-19300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>24900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>12100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>9500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-69400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-86000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-72000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-61100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-69100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-98100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-28300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-17200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-16800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-18800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-69400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-86000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-72000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-61100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-69100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-98100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-28300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-17200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-16800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-18800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2137,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>121100</v>
+      </c>
+      <c r="F41" s="3">
         <v>114800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>110800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>103900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>103900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>116200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>113600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>52100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2183,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,38 +2233,44 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>106300</v>
+      </c>
+      <c r="F43" s="3">
         <v>91400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>89500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>75600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>83600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>72800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>72000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>69400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2283,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,38 +2333,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F45" s="3">
         <v>9500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>12700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2383,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>236400</v>
+      </c>
+      <c r="F46" s="3">
         <v>215700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>208700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>188000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>196100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>197800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>194400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>134200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2433,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,38 +2483,44 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,38 +2533,44 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>227200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>214100</v>
+      </c>
+      <c r="F49" s="3">
         <v>215500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>217900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>220400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>193500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>149300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>153300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>145800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2583,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,38 +2683,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F52" s="3">
         <v>3300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2733,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2783,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>469900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>466500</v>
+      </c>
+      <c r="F54" s="3">
         <v>440700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>435800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>416300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>397300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>354300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>354500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>286400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2833,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2877,40 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F57" s="3">
         <v>28400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>38100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>17300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>21700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>27900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>30900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>32200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2923,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,38 +2973,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>95000</v>
+      </c>
+      <c r="F59" s="3">
         <v>95100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>86500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>91900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>84000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>74600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>66100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>61900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,38 +3023,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>128700</v>
+      </c>
+      <c r="F60" s="3">
         <v>123500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>124600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>109200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>105800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>102500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>97000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>94100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,38 +3073,44 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>184000</v>
+      </c>
+      <c r="F61" s="3">
         <v>183900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>183800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>183700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>183600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>183500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>183400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>193400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2838,38 +3123,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F62" s="3">
         <v>24300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>20600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>19100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>17400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>12500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>21000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>102800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3173,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3323,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>339900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>338500</v>
+      </c>
+      <c r="F66" s="3">
         <v>331600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>328900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>312000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>306800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>298500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>301500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>390300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3373,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3188,14 +3523,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>154200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3593,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-828000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-771100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-719300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-649900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-563900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-491800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-430700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-361600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-266600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3643,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3793,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>128000</v>
+      </c>
+      <c r="F76" s="3">
         <v>109100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>106900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>104300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>90500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>55800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>53100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-258100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3843,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-69400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-86000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-72000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-61100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-69100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-98100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-28300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-17200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-16800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-18800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F83" s="3">
         <v>13400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>13300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>12800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>12800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>11800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>11200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>10100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>9900</v>
       </c>
       <c r="L83" s="3">
         <v>10100</v>
       </c>
       <c r="M83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="N83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O83" s="3">
         <v>10500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F89" s="3">
         <v>19500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>14700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>21200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>20900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>10200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>7600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>18900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>6300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5700</v>
+        <v>-25900</v>
       </c>
       <c r="E91" s="3">
-        <v>-4800</v>
+        <v>-9300</v>
       </c>
       <c r="F91" s="3">
-        <v>-6700</v>
+        <v>-9900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2600</v>
+        <v>-8900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2500</v>
+        <v>-20400</v>
       </c>
       <c r="I91" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-9900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-8900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-20400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-24400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-6400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-9300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4808,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-9000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>63300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-3200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>9600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F102" s="3">
         <v>4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>6900</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-12300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>61500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>9800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>10300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>171800</v>
+      </c>
+      <c r="E8" s="3">
         <v>157600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>175100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>152300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>137300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>126300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>134800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>115100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>101500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>114400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>95300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>77100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E9" s="3">
         <v>54400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>66000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>57500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>50200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29300</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E10" s="3">
         <v>103300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>109100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>94800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>87100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>84600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>85800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>70600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>64700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>66100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E12" s="3">
         <v>18500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8200</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,17 +1024,20 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1025,90 +1045,96 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-9500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E15" s="3">
         <v>11800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>12800</v>
       </c>
       <c r="I15" s="3">
         <v>12800</v>
       </c>
       <c r="J15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K15" s="3">
         <v>11800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E17" s="3">
         <v>210000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>222900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>218400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>214400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>194300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>196000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>182000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>219200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>99600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>107800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>94700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>83800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-52400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-47800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-66100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-77100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-68000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-61200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-66900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-112300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,125 +1277,132 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-42500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-37200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-53100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-70700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-60600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-47100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-55600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-81700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1300</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
@@ -1371,131 +1411,140 @@
         <v>1300</v>
       </c>
       <c r="K22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-56800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-68500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-85700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-74600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-61200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-68700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-94300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-57000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-51800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-69400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-86000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-72000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-61100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-69100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-94900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-57000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-51800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-69400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-86000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-72000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-61100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-69100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-98100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-28300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-57000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-51800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-69400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-86000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-72000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-61100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-69100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-98100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-28300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-57000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-51800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-69400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-86000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-72000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-61100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-69100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-98100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-28300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E41" s="3">
         <v>107800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>121100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>114800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>110800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>103900</v>
       </c>
       <c r="I41" s="3">
         <v>103900</v>
       </c>
       <c r="J41" s="3">
+        <v>103900</v>
+      </c>
+      <c r="K41" s="3">
         <v>116200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>113600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,41 +2329,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E43" s="3">
         <v>109400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>106300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>91400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>89500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>75600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>83600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>72800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>72000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>69400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,41 +2435,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>8600</v>
       </c>
       <c r="I45" s="3">
         <v>8600</v>
       </c>
       <c r="J45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K45" s="3">
         <v>8900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2488,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>246500</v>
+      </c>
+      <c r="E46" s="3">
         <v>226000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>236400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>215700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>208700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>188000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>196100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>197800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>194400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>134200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,41 +2594,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E48" s="3">
         <v>12900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,41 +2647,44 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>227400</v>
+      </c>
+      <c r="E49" s="3">
         <v>227200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>214100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>215500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>217900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>220400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>193500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>149300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>153300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>145800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2806,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2912,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>491200</v>
+      </c>
+      <c r="E54" s="3">
         <v>469900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>466500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>440700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>435800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>416300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>397300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>354300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>354500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>286400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,41 +3009,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E57" s="3">
         <v>38500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,41 +3113,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E59" s="3">
         <v>91600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>95000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>95100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>86500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>91900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>84000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>61900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3166,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>147300</v>
+      </c>
+      <c r="E60" s="3">
         <v>130000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>128700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>123500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>124600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>109200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>105800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>102500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>97000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>94100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,41 +3219,44 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E61" s="3">
         <v>183800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>184000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>183900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>183800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>183700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>183600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>183500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>183400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>193400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3129,41 +3272,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E62" s="3">
         <v>26000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>102800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3484,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>353900</v>
+      </c>
+      <c r="E66" s="3">
         <v>339900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>338500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>331600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>328900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>312000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>306800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>298500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>301500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>390300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3529,11 +3697,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>154200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3770,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-880200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-828000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-771100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-719300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-649900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-563900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-491800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-430700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-361600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-266600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3982,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E76" s="3">
         <v>129900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>128000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>109100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>106900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>104300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>90500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>55800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-258100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-57000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-51800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-69400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-86000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-72000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-61100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-69100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-98100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-28300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E83" s="3">
         <v>11800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>12800</v>
       </c>
       <c r="I83" s="3">
         <v>12800</v>
       </c>
       <c r="J83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K83" s="3">
         <v>11800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E89" s="3">
         <v>20100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,99 +5057,105 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7500</v>
+        <v>-1300</v>
       </c>
       <c r="E100" s="3">
         <v>-7500</v>
       </c>
       <c r="F100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="G100" s="3">
         <v>-5300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>63300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>9600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-100</v>
       </c>
       <c r="N101" s="3">
         <v>-100</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6900</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-12300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZETA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E8" s="3">
         <v>171800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>157600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>175100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>152300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>137300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>126300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>134800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>115100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>106900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>101500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>114400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>95300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>77100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E9" s="3">
         <v>62000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>54400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>66000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>57500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>50200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>48300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>29300</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>115500</v>
+      </c>
+      <c r="E10" s="3">
         <v>109800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>103300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>109100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>94800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>87100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>84600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>85800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>70600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>66100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>54600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E12" s="3">
         <v>17300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,20 +1044,23 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1048,93 +1068,99 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-9500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E15" s="3">
         <v>12600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>12800</v>
       </c>
       <c r="J15" s="3">
         <v>12800</v>
       </c>
       <c r="K15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="L15" s="3">
         <v>11800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10500</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>226200</v>
+      </c>
+      <c r="E17" s="3">
         <v>218000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>210000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>222900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>218400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>214400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>194300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>196000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>182000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>219200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>99600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>107800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>94700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>83800</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-46200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-52400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-47800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-66100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-77100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-68000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-61200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-66900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-112300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,134 +1311,141 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-36500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-42500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-37200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-53100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-70700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-60600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-47100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-55600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-81700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
         <v>2800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1300</v>
       </c>
       <c r="J22" s="3">
         <v>1300</v>
@@ -1414,137 +1454,146 @@
         <v>1300</v>
       </c>
       <c r="L22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-51900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-51900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-68500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-85700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-74600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-61200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-68700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-94300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2600</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-52200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-57000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-51800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-69400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-86000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-72000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-61100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-69100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-94900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-52200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-57000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-51800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-69400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-86000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-72000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-61100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-69100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-98100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-28300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3600</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-52200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-57000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-51800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-69400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-86000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-72000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-61100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-69100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-98100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-28300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-52200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-57000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-51800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-69400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-86000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-72000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-61100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-69100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-98100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-28300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,44 +2312,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E41" s="3">
         <v>117100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>121100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>114800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>110800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>103900</v>
       </c>
       <c r="J41" s="3">
         <v>103900</v>
       </c>
       <c r="K41" s="3">
+        <v>103900</v>
+      </c>
+      <c r="L41" s="3">
         <v>116200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>113600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,44 +2422,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E43" s="3">
         <v>122000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>109400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>106300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>91400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>89500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>75600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>83600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>72800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>72000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>69400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,44 +2534,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E45" s="3">
         <v>7500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>8600</v>
       </c>
       <c r="J45" s="3">
         <v>8600</v>
       </c>
       <c r="K45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,44 +2590,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>269500</v>
+      </c>
+      <c r="E46" s="3">
         <v>246500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>226000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>236400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>215700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>208700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>188000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>196100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>197800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>194400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>134200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,44 +2702,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E48" s="3">
         <v>13100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,44 +2758,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>224200</v>
+      </c>
+      <c r="E49" s="3">
         <v>227400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>227200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>214100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>215500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>217900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>220400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>193500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>149300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>153300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>145800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,44 +2926,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
         <v>4100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,44 +3038,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>511300</v>
+      </c>
+      <c r="E54" s="3">
         <v>491200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>469900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>466500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>440700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>435800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>416300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>397300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>354300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>354500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>286400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,44 +3140,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E57" s="3">
         <v>55900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,44 +3250,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E59" s="3">
         <v>91400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>91600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>95000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>95100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>86500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>91900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>84000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>66100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>61900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,44 +3306,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>162500</v>
+      </c>
+      <c r="E60" s="3">
         <v>147300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>130000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>128700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>123500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>124600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>109200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>105800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>102500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>97000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>94100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,44 +3362,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E61" s="3">
         <v>183900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>183800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>184000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>183900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>183800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>183700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>183600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>183500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>183400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>193400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3275,44 +3418,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E62" s="3">
         <v>22600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>102800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,44 +3642,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>361600</v>
+      </c>
+      <c r="E66" s="3">
         <v>353900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>339900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>338500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>331600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>328900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>312000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>306800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>298500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>301500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>390300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3700,11 +3868,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>154200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,44 +3944,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-923300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-880200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-828000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-771100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-719300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-649900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-563900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-491800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-430700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-361600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-266600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,44 +4168,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E76" s="3">
         <v>137300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>129900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>128000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>109100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>106900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>104300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-258100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-52200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-57000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-51800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-69400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-86000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-72000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-61100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-69100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-98100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-28300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E83" s="3">
         <v>12600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>12800</v>
       </c>
       <c r="J83" s="3">
         <v>12800</v>
       </c>
       <c r="K83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="L83" s="3">
         <v>11800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E89" s="3">
         <v>20600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,105 +5303,111 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-7500</v>
       </c>
       <c r="F100" s="3">
         <v>-7500</v>
       </c>
       <c r="G100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H100" s="3">
         <v>-5300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>63300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>9600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-100</v>
       </c>
       <c r="O101" s="3">
         <v>-100</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>9300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6900</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-12300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
